--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8737957/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8737957/file.xlsx
@@ -17,14 +17,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.##"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="d MMM yyyy"/>
     <numFmt numFmtId="167" formatCode="d MMM yyyy H:mm"/>
     <numFmt numFmtId="168" formatCode="H:mm"/>
+    <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
+    <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +167,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -639,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1728,6 +1752,222 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2085,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2212,7 +2452,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>*</t>
+          <t/>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2222,46 +2462,46 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32773746</t>
+          <t>35655144</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56510231282</t>
+          <t>56000789044</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERGIO GÓMEZ NAVASMARTINEZ</t>
+          <t xml:space="preserve">MOIS?S AGAME RAM?REZ </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3001.51</v>
+        <v>50000.29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C109081</t>
+          <t>C025516</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C109081</t>
+          <t>C025516</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MORA CAMPOS DIANA GRISEL</t>
-        </is>
-      </c>
-      <c r="J2" s="366" t="n">
-        <v>45290.0</v>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J2" s="442" t="n">
+        <v>45418.0</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CONTACT ALTAIR</t>
+          <t>CONNECT</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -2291,12 +2531,1741 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>GRAB-EXT. 78071 Hora 09:06:42 a.m.</t>
+          <t>GRAB-EXT. 110160 Hora 10:17:13</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>28410</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>35656910</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56506567415</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUMBERTO V?ZQUEZ LABASTIDA </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>31998.55</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J3" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 11:47:24</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>18774</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>35655676</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56533655854</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>JOS? MANUEL RODR?GUEZ SOTO</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2806.62</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J4" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 10:43:58</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>35654145</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56540018907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ROSA MAR?A MARTINA RU?Z LAPAYRE</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>12000.73</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J5" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:34:15</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>35658359</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56544655660</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ADRIANA MART?NEZ GARZA MORELOS</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5029.28</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J6" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 12:57:56</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>35654237</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56553381735</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MAR?A DEL ROC?O CAMARILLO VILLEGAS</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1999.3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J7" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:26:46</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>35657445</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56694555709</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BERTHA RAM?REZ ROJAS </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>80001.5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J8" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 12:13:48</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>46938</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>35654793</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57000629823</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDGAR ACOSTA DUR?N </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>9000.97</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J9" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:58:14</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>35655297</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57006289500</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAR?A GUADALUPE MAGALI G?MEZ G?MEZ </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>800034.39</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J10" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 10:24:27</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>16533</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>35656217</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57011193558</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MAR?A GENOVEVA ?VILA JARAMILLO</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9968.37</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J11" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 11:11:13</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>35654037</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60508576416</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAR?A DE LOURDES AGUILAR JIM?NEZ </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>46749.39</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J12" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:14:47</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>24472</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>35656810</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60515378976</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAR?A DEL CARMEN ESCOBAR S?NCHEZ </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>15000.06</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J13" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 11:41:50</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>35654586</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60518346478</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JOS? FRANCISCO GALLEGOS ORTEGA </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>8952.17</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J14" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:46:07</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>35658761</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60538110482</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLAUDIA AGUIRRE PALACIO </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>101979.61</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J15" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 13:16:56</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>35655572</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>60580705567</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MA CONCEPCI?N VEGA SALINAS</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6001.44</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J16" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 10:37:59</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3410</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>35654060</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>60584052303</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAR?A DE LOURDES AGUILAR JIM?NEZ </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>39998.47</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J17" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:16:04</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>22727</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>35654085</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>60607406438</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAR?A DE LOURDES AGUILAR JIM?NEZ </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>15181.36</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J18" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 09:17:58</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>8626</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>35656440</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60611871243</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAROLINA ALTAGRACIA HERAS LARA </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>7001.09</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J19" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 11:22:58</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>35655447</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>60612519475</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JES?S EFRA?N MEJ?A CERVANTES </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>100000.44</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J20" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>FONSER</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 10:30:57</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONDOS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>35656105</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>60617636634</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LORENA ARCHUNDIA NAVARRO </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>5000.73</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>C025516</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Leopoldo Herrera Zamorano</t>
+        </is>
+      </c>
+      <c r="J21" s="442" t="n">
+        <v>45418.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CONNECT</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>GRAB-EXT. 110160 Hora 11:05:43</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2934</t>
         </is>
       </c>
     </row>
